--- a/data/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/data/CPR_100221_20210210-114741/Ratios.xlsx
@@ -411,8 +411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
@@ -421,7 +421,7 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
@@ -430,7 +430,7 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -497,684 +497,684 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>0.1474028048522591</v>
+        <v>0.1143667343042054</v>
       </c>
       <c r="B2">
-        <v>0.001672089578969144</v>
+        <v>0.001672089322806292</v>
       </c>
       <c r="C2">
-        <v>0.00994521115138886</v>
+        <v>0.009947044687815326</v>
       </c>
       <c r="D2">
-        <v>0.7012819882711202</v>
+        <v>0.7011526860997377</v>
       </c>
       <c r="E2">
-        <v>0.007144337661301313</v>
+        <v>0.00714433689233078</v>
       </c>
       <c r="F2">
-        <v>0.007046488335541806</v>
+        <v>0.007046489093913378</v>
       </c>
       <c r="G2">
-        <v>2.732204480089765</v>
+        <v>2.732204386789063</v>
       </c>
       <c r="H2">
-        <v>0.01064430962239785</v>
+        <v>0.01064431016615503</v>
       </c>
       <c r="I2">
-        <v>2.083412806235802</v>
+        <v>2.082960841733835</v>
       </c>
       <c r="J2">
-        <v>0.6366890212507544</v>
+        <v>0.6365650677998222</v>
       </c>
       <c r="K2">
-        <v>0.007568886138292758</v>
+        <v>0.00756863612888841</v>
       </c>
       <c r="L2">
-        <v>0.1671843144600371</v>
+        <v>0.1671898113278986</v>
       </c>
       <c r="M2">
-        <v>5.489433742352288E-05</v>
+        <v>5.489252419759365E-05</v>
       </c>
       <c r="N2">
-        <v>0.1671843144600357</v>
+        <v>0.1671898113278987</v>
       </c>
       <c r="O2">
-        <v>1.32457832881751</v>
+        <v>1.324584322994288</v>
       </c>
       <c r="P2">
-        <v>0.3409071964093672</v>
+        <v>0.3409000047751028</v>
       </c>
       <c r="Q2">
-        <v>0.1838641433978513</v>
+        <v>0.1838227800153526</v>
       </c>
       <c r="R2">
-        <v>0.4667642346359745</v>
+        <v>0.4667233759767803</v>
       </c>
       <c r="S2">
-        <v>0.2426206603465738</v>
+        <v>0.2425652817721227</v>
       </c>
       <c r="T2">
-        <v>0.3270283734377929</v>
+        <v>0.32695342528132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>146.0481443274315</v>
+        <v>146.0150489192544</v>
       </c>
       <c r="B3">
-        <v>0.0005483830859690509</v>
+        <v>0.0005483835799002634</v>
       </c>
       <c r="C3">
-        <v>0.009968555621964005</v>
+        <v>0.009972045011614569</v>
       </c>
       <c r="D3">
-        <v>0.2647299996796809</v>
+        <v>0.2646377242004547</v>
       </c>
       <c r="E3">
-        <v>0.007130190421182738</v>
+        <v>0.007130189652224251</v>
       </c>
       <c r="F3">
-        <v>0.003500697437917171</v>
+        <v>0.003500697815570997</v>
       </c>
       <c r="G3">
-        <v>5.185694209007577</v>
+        <v>5.1856942063239</v>
       </c>
       <c r="H3">
-        <v>0.005617505310219011</v>
+        <v>0.005617505714359325</v>
       </c>
       <c r="I3">
-        <v>4.508363248972787</v>
+        <v>4.506651131411997</v>
       </c>
       <c r="J3">
-        <v>0.2744909233764562</v>
+        <v>0.2743973420444351</v>
       </c>
       <c r="K3">
-        <v>0.008673029484543448</v>
+        <v>0.008672779026085535</v>
       </c>
       <c r="L3">
-        <v>0.04784991701119828</v>
+        <v>0.04785134195379109</v>
       </c>
       <c r="M3">
-        <v>6.290228156557789E-05</v>
+        <v>6.290046508282891E-05</v>
       </c>
       <c r="N3">
-        <v>0.04784991701119803</v>
+        <v>0.0478513419537915</v>
       </c>
       <c r="O3">
-        <v>0.003170444848819749</v>
+        <v>0.0032773447034385</v>
       </c>
       <c r="P3">
-        <v>2.188649393187145</v>
+        <v>2.118638886166868</v>
       </c>
       <c r="Q3">
-        <v>0.09740392231733302</v>
+        <v>0.09736895715369355</v>
       </c>
       <c r="R3">
-        <v>0.1987442420692413</v>
+        <v>0.198702951628399</v>
       </c>
       <c r="S3">
-        <v>0.000310256801782638</v>
+        <v>0.0003205476770501719</v>
       </c>
       <c r="T3">
-        <v>2.086052913453943</v>
+        <v>2.018904390208913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>0.1082939667449434</v>
+        <v>0.07524374222045438</v>
       </c>
       <c r="B4">
-        <v>0.001847658571344351</v>
+        <v>0.001847658475256469</v>
       </c>
       <c r="C4">
-        <v>0.01002562218844927</v>
+        <v>0.01002745745125579</v>
       </c>
       <c r="D4">
-        <v>0.8836530058077673</v>
+        <v>0.8834914352253984</v>
       </c>
       <c r="E4">
-        <v>0.007140668802352019</v>
+        <v>0.007140668033343761</v>
       </c>
       <c r="F4">
-        <v>0.006578732911966315</v>
+        <v>0.006578733621411427</v>
       </c>
       <c r="G4">
-        <v>2.732275993778861</v>
+        <v>2.732275900435217</v>
       </c>
       <c r="H4">
-        <v>0.0125446947812126</v>
+        <v>0.01254469539256384</v>
       </c>
       <c r="I4">
-        <v>2.072327696516392</v>
+        <v>2.071877261004955</v>
       </c>
       <c r="J4">
-        <v>0.8537651366902941</v>
+        <v>0.8536139860979418</v>
       </c>
       <c r="K4">
-        <v>0.007568590171576447</v>
+        <v>0.007568340055058053</v>
       </c>
       <c r="L4">
-        <v>0.18474585027347</v>
+        <v>0.1847519460978394</v>
       </c>
       <c r="M4">
-        <v>5.48921908861732E-05</v>
+        <v>5.489037688338532E-05</v>
       </c>
       <c r="N4">
-        <v>0.1847458502734693</v>
+        <v>0.18475194609784</v>
       </c>
       <c r="O4">
-        <v>1.323327313123849</v>
+        <v>1.323333400550307</v>
       </c>
       <c r="P4">
-        <v>0.2852891193834973</v>
+        <v>0.2852824024570378</v>
       </c>
       <c r="Q4">
-        <v>0.1830531228100208</v>
+        <v>0.1830110572045474</v>
       </c>
       <c r="R4">
-        <v>0.4136314311828959</v>
+        <v>0.413548279079566</v>
       </c>
       <c r="S4">
-        <v>0.2414813960446085</v>
+        <v>0.2414264833758018</v>
       </c>
       <c r="T4">
-        <v>0.3637714684379225</v>
+        <v>0.3636863292778187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>145.9897627362516</v>
+        <v>145.9566434423649</v>
       </c>
       <c r="B5">
-        <v>0.0004972627515872339</v>
+        <v>0.0004972629048417086</v>
       </c>
       <c r="C5">
-        <v>0.01000150139470843</v>
+        <v>0.01000467291249881</v>
       </c>
       <c r="D5">
-        <v>0.2853574190663365</v>
+        <v>0.2852668181071359</v>
       </c>
       <c r="E5">
-        <v>0.007126502067722853</v>
+        <v>0.007126501298762527</v>
       </c>
       <c r="F5">
-        <v>0.002583034271536855</v>
+        <v>0.002583034550051453</v>
       </c>
       <c r="G5">
-        <v>4.708247106221066</v>
+        <v>4.708247072845213</v>
       </c>
       <c r="H5">
-        <v>0.00595454856877075</v>
+        <v>0.005954548962270751</v>
       </c>
       <c r="I5">
-        <v>4.08397003922842</v>
+        <v>4.082557419361147</v>
       </c>
       <c r="J5">
-        <v>0.2855032085639308</v>
+        <v>0.2854149612861608</v>
       </c>
       <c r="K5">
-        <v>0.008672587666052518</v>
+        <v>0.008672337026833031</v>
       </c>
       <c r="L5">
-        <v>0.04339155267844046</v>
+        <v>0.04339282011123668</v>
       </c>
       <c r="M5">
-        <v>6.289907721914199E-05</v>
+        <v>6.289725942539605E-05</v>
       </c>
       <c r="N5">
-        <v>0.04339155267844032</v>
+        <v>0.04339282011123644</v>
       </c>
       <c r="O5">
-        <v>0.002728792505942501</v>
+        <v>0.002813531792510626</v>
       </c>
       <c r="P5">
-        <v>2.058851861213419</v>
+        <v>1.997515402124657</v>
       </c>
       <c r="Q5">
-        <v>0.1816000098995072</v>
+        <v>0.1814969380218558</v>
       </c>
       <c r="R5">
-        <v>0.3099872052530082</v>
+        <v>0.3098441651051433</v>
       </c>
       <c r="S5">
-        <v>0.0004958346563794873</v>
+        <v>0.0005110649611273431</v>
       </c>
       <c r="T5">
-        <v>2.069300341425184</v>
+        <v>2.008083298503632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>2.547687631656581</v>
+        <v>2.514640426850789</v>
       </c>
       <c r="B6">
-        <v>0.001802157123980749</v>
+        <v>0.001802158364614082</v>
       </c>
       <c r="C6">
-        <v>0.00981732907235797</v>
+        <v>0.009819163185528878</v>
       </c>
       <c r="D6">
-        <v>0.7007259359200307</v>
+        <v>0.7005947876739393</v>
       </c>
       <c r="E6">
-        <v>0.007141391515561822</v>
+        <v>0.007141390746544888</v>
       </c>
       <c r="F6">
-        <v>0.006793853468709934</v>
+        <v>0.006793854199901772</v>
       </c>
       <c r="G6">
-        <v>2.732690980531203</v>
+        <v>2.732690887221285</v>
       </c>
       <c r="H6">
-        <v>0.01292793395692445</v>
+        <v>0.01292793445151222</v>
       </c>
       <c r="I6">
-        <v>2.106032390557403</v>
+        <v>2.105568368409784</v>
       </c>
       <c r="J6">
-        <v>0.6879919505263005</v>
+        <v>0.6878737296271061</v>
       </c>
       <c r="K6">
-        <v>0.007587050943303103</v>
+        <v>0.007586800849637246</v>
       </c>
       <c r="L6">
-        <v>0.1797577458123751</v>
+        <v>0.179763795154828</v>
       </c>
       <c r="M6">
-        <v>5.502608004948544E-05</v>
+        <v>5.50242662124386E-05</v>
       </c>
       <c r="N6">
-        <v>0.1797577458123742</v>
+        <v>0.1797637951548278</v>
       </c>
       <c r="O6">
-        <v>1.322194213569187</v>
+        <v>1.322200220349557</v>
       </c>
       <c r="P6">
-        <v>0.2209786610354271</v>
+        <v>0.2209736404250356</v>
       </c>
       <c r="Q6">
-        <v>0.1811785878129005</v>
+        <v>0.1811370290506207</v>
       </c>
       <c r="R6">
-        <v>0.380483455424688</v>
+        <v>0.3803973243849685</v>
       </c>
       <c r="S6">
-        <v>0.2397203559392945</v>
+        <v>0.239667028579765</v>
       </c>
       <c r="T6">
-        <v>0.3657631081925944</v>
+        <v>0.3656704039744018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>146.3918047429314</v>
+        <v>146.3587040911574</v>
       </c>
       <c r="B7">
-        <v>0.0005473660534157596</v>
+        <v>0.0005473663981895642</v>
       </c>
       <c r="C7">
-        <v>0.009970726321286122</v>
+        <v>0.009974392941727757</v>
       </c>
       <c r="D7">
-        <v>0.3400588420944289</v>
+        <v>0.3399342746653213</v>
       </c>
       <c r="E7">
-        <v>0.007131295952855603</v>
+        <v>0.007131295183894645</v>
       </c>
       <c r="F7">
-        <v>0.002895902263543763</v>
+        <v>0.002895902575613672</v>
       </c>
       <c r="G7">
-        <v>5.44807268045547</v>
+        <v>5.448072697317903</v>
       </c>
       <c r="H7">
-        <v>0.007157356968637553</v>
+        <v>0.007157357494189458</v>
       </c>
       <c r="I7">
-        <v>4.75078078866092</v>
+        <v>4.748892358965405</v>
       </c>
       <c r="J7">
-        <v>0.3485719739675326</v>
+        <v>0.3484447245712958</v>
       </c>
       <c r="K7">
-        <v>0.00867563022774176</v>
+        <v>0.008675379729601508</v>
       </c>
       <c r="L7">
-        <v>0.04774685680333407</v>
+        <v>0.04774826555039882</v>
       </c>
       <c r="M7">
-        <v>6.292114379603978E-05</v>
+        <v>6.291932702548944E-05</v>
       </c>
       <c r="N7">
-        <v>0.04774685680333364</v>
+        <v>0.04774826555039949</v>
       </c>
       <c r="O7">
-        <v>0.003537307018553161</v>
+        <v>0.003654896968490784</v>
       </c>
       <c r="P7">
-        <v>1.999992080587661</v>
+        <v>1.936336394570503</v>
       </c>
       <c r="Q7">
-        <v>0.1805946855389666</v>
+        <v>0.1804577480367137</v>
       </c>
       <c r="R7">
-        <v>0.3854856795739826</v>
+        <v>0.3852339957965794</v>
       </c>
       <c r="S7">
-        <v>0.0006428869936757201</v>
+        <v>0.0006636456736421185</v>
       </c>
       <c r="T7">
-        <v>2.001582743321483</v>
+        <v>1.939710498005037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>0.7309925080301038</v>
+        <v>0.6979624794027917</v>
       </c>
       <c r="B8">
-        <v>0.001333396301606133</v>
+        <v>0.001333396989833812</v>
       </c>
       <c r="C8">
-        <v>0.009905968276297198</v>
+        <v>0.009907802217358631</v>
       </c>
       <c r="D8">
-        <v>0.8953554858754555</v>
+        <v>0.8951896101869951</v>
       </c>
       <c r="E8">
-        <v>0.007144999697078041</v>
+        <v>0.007144998928039134</v>
       </c>
       <c r="F8">
-        <v>0.008766108821031708</v>
+        <v>0.008766109761841652</v>
       </c>
       <c r="G8">
-        <v>2.7324605522444</v>
+        <v>2.732460458939089</v>
       </c>
       <c r="H8">
-        <v>0.01200300471147476</v>
+        <v>0.01200300534548393</v>
       </c>
       <c r="I8">
-        <v>2.090075301089851</v>
+        <v>2.089621996132539</v>
       </c>
       <c r="J8">
-        <v>0.8527264273723251</v>
+        <v>0.8525647439070897</v>
       </c>
       <c r="K8">
-        <v>0.007573302611307082</v>
+        <v>0.007573052647626605</v>
       </c>
       <c r="L8">
-        <v>0.1332422310879352</v>
+        <v>0.1332466977878208</v>
       </c>
       <c r="M8">
-        <v>5.492636847213961E-05</v>
+        <v>5.492455557782874E-05</v>
       </c>
       <c r="N8">
-        <v>0.1332422310879348</v>
+        <v>0.133246697787821</v>
       </c>
       <c r="O8">
-        <v>1.319618086070114</v>
+        <v>1.319624247369094</v>
       </c>
       <c r="P8">
-        <v>0.2325230286476895</v>
+        <v>0.2325179417830537</v>
       </c>
       <c r="Q8">
-        <v>0.1803882311269129</v>
+        <v>0.1803459092003151</v>
       </c>
       <c r="R8">
-        <v>0.4298813548365808</v>
+        <v>0.4297868006133961</v>
       </c>
       <c r="S8">
-        <v>0.238336028024993</v>
+        <v>0.2382822709433621</v>
       </c>
       <c r="T8">
-        <v>0.3671513792106081</v>
+        <v>0.3670470559826737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>146.0261531065901</v>
+        <v>145.9930428814786</v>
       </c>
       <c r="B9">
-        <v>0.0003793786157316499</v>
+        <v>0.0003793789222423742</v>
       </c>
       <c r="C9">
-        <v>0.009981001169480164</v>
+        <v>0.009984642247515869</v>
       </c>
       <c r="D9">
-        <v>0.3250333458300808</v>
+        <v>0.3249150038569073</v>
       </c>
       <c r="E9">
-        <v>0.007129198886611251</v>
+        <v>0.007129198117649794</v>
       </c>
       <c r="F9">
-        <v>0.002259488679877669</v>
+        <v>0.002259488923487795</v>
       </c>
       <c r="G9">
-        <v>5.407817410788466</v>
+        <v>5.407817424515519</v>
       </c>
       <c r="H9">
-        <v>0.005087385545107317</v>
+        <v>0.005087385928677475</v>
       </c>
       <c r="I9">
-        <v>4.700106726827011</v>
+        <v>4.698260018102006</v>
       </c>
       <c r="J9">
-        <v>0.3273950030010895</v>
+        <v>0.3272789772884239</v>
       </c>
       <c r="K9">
-        <v>0.008672863060028294</v>
+        <v>0.008672612489439223</v>
       </c>
       <c r="L9">
-        <v>0.03310383578099479</v>
+        <v>0.0331048189689242</v>
       </c>
       <c r="M9">
-        <v>6.290107454999815E-05</v>
+        <v>6.289925725400325E-05</v>
       </c>
       <c r="N9">
-        <v>0.03310383578099413</v>
+        <v>0.03310481896892375</v>
       </c>
       <c r="O9">
-        <v>0.003073131051111197</v>
+        <v>0.003181029449791472</v>
       </c>
       <c r="P9">
-        <v>2.210325881998684</v>
+        <v>2.136376476475425</v>
       </c>
       <c r="Q9">
-        <v>0.1139471268105686</v>
+        <v>0.1138978916414677</v>
       </c>
       <c r="R9">
-        <v>0.2497190527576162</v>
+        <v>0.2496545418348033</v>
       </c>
       <c r="S9">
-        <v>0.0003511597327872219</v>
+        <v>0.0003632314580999754</v>
       </c>
       <c r="T9">
-        <v>2.209529612123379</v>
+        <v>2.136083829830561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>0.7376948960589047</v>
+        <v>0.7046473595699876</v>
       </c>
       <c r="B10">
-        <v>0.001929450304699425</v>
+        <v>0.001929450337261307</v>
       </c>
       <c r="C10">
-        <v>0.009839926736523175</v>
+        <v>0.009841760080815906</v>
       </c>
       <c r="D10">
-        <v>0.8800027679822211</v>
+        <v>0.8798385627668116</v>
       </c>
       <c r="E10">
-        <v>0.00714425849985789</v>
+        <v>0.007144257730818516</v>
       </c>
       <c r="F10">
-        <v>0.005991625816246324</v>
+        <v>0.005991626464188845</v>
       </c>
       <c r="G10">
-        <v>2.731460777484934</v>
+        <v>2.731460684210479</v>
       </c>
       <c r="H10">
-        <v>0.009998739593415407</v>
+        <v>0.009998739986237109</v>
       </c>
       <c r="I10">
-        <v>2.11306641683574</v>
+        <v>2.112603635307891</v>
       </c>
       <c r="J10">
-        <v>0.9214606986428734</v>
+        <v>0.9213030659910797</v>
       </c>
       <c r="K10">
-        <v>0.00757335333344234</v>
+        <v>0.007573103237266384</v>
       </c>
       <c r="L10">
-        <v>0.192802800827826</v>
+        <v>0.192809171252707</v>
       </c>
       <c r="M10">
-        <v>5.492673634106469E-05</v>
+        <v>5.4924922485813E-05</v>
       </c>
       <c r="N10">
-        <v>0.192802800827826</v>
+        <v>0.1928091712527066</v>
       </c>
       <c r="O10">
-        <v>1.317295500410008</v>
+        <v>1.317301608640938</v>
       </c>
       <c r="P10">
-        <v>0.2454019481205391</v>
+        <v>0.2453966400949428</v>
       </c>
       <c r="Q10">
-        <v>0.1802599754375617</v>
+        <v>0.1802190851860907</v>
       </c>
       <c r="R10">
-        <v>0.4151085815168754</v>
+        <v>0.4150400840242146</v>
       </c>
       <c r="S10">
-        <v>0.2368385468231184</v>
+        <v>0.2367855739726799</v>
       </c>
       <c r="T10">
-        <v>0.4261137121535442</v>
+        <v>0.4260307905930146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>146.9935384908916</v>
+        <v>146.9604677031626</v>
       </c>
       <c r="B11">
-        <v>0.0004881332165120665</v>
+        <v>0.0004881335238397607</v>
       </c>
       <c r="C11">
-        <v>0.01001390556906223</v>
+        <v>0.01001695123005385</v>
       </c>
       <c r="D11">
-        <v>0.3569318230049844</v>
+        <v>0.3568233649279627</v>
       </c>
       <c r="E11">
-        <v>0.007133269031051171</v>
+        <v>0.007133268262085691</v>
       </c>
       <c r="F11">
-        <v>0.00344338241512445</v>
+        <v>0.003443382786207898</v>
       </c>
       <c r="G11">
-        <v>4.530725673493969</v>
+        <v>4.530725630443185</v>
       </c>
       <c r="H11">
-        <v>0.00643103274099897</v>
+        <v>0.006431033156213491</v>
       </c>
       <c r="I11">
-        <v>3.927208584343912</v>
+        <v>3.925903402007213</v>
       </c>
       <c r="J11">
-        <v>0.3578936326645357</v>
+        <v>0.3577868050430094</v>
       </c>
       <c r="K11">
-        <v>0.008680184010725255</v>
+        <v>0.008679933738589246</v>
       </c>
       <c r="L11">
-        <v>0.04255762566494514</v>
+        <v>0.04255887954161763</v>
       </c>
       <c r="M11">
-        <v>6.295417070318067E-05</v>
+        <v>6.295235557175569E-05</v>
       </c>
       <c r="N11">
-        <v>0.04255762566494552</v>
+        <v>0.04255887954161741</v>
       </c>
       <c r="O11">
-        <v>0.00329842571444429</v>
+        <v>0.003398957315546118</v>
       </c>
       <c r="P11">
-        <v>2.330804927924231</v>
+        <v>2.262906505247554</v>
       </c>
       <c r="Q11">
-        <v>0.206412910440756</v>
+        <v>0.2062557903627206</v>
       </c>
       <c r="R11">
-        <v>0.3634467364140995</v>
+        <v>0.36315465493538</v>
       </c>
       <c r="S11">
-        <v>0.0006854635435803147</v>
+        <v>0.0007053640786390493</v>
       </c>
       <c r="T11">
-        <v>2.36161544921535</v>
+        <v>2.296267033740035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>1.154047551255477</v>
+        <v>1.121018406509577</v>
       </c>
       <c r="B12">
-        <v>0.001506192333574959</v>
+        <v>0.001506192629674534</v>
       </c>
       <c r="C12">
-        <v>0.009954393592580747</v>
+        <v>0.009956225754944125</v>
       </c>
       <c r="D12">
-        <v>0.8090605129167493</v>
+        <v>0.8089106848440023</v>
       </c>
       <c r="E12">
-        <v>0.007145724728429384</v>
+        <v>0.007145723959401584</v>
       </c>
       <c r="F12">
-        <v>0.006293222591577159</v>
+        <v>0.006293223271456397</v>
       </c>
       <c r="G12">
-        <v>2.731635824767091</v>
+        <v>2.731635731525279</v>
       </c>
       <c r="H12">
-        <v>0.01143055899196309</v>
+        <v>0.01143055946331255</v>
       </c>
       <c r="I12">
-        <v>2.082313390004547</v>
+        <v>2.081859566530355</v>
       </c>
       <c r="J12">
-        <v>0.8465037511973165</v>
+        <v>0.8463572318815002</v>
       </c>
       <c r="K12">
-        <v>0.007576504194837092</v>
+        <v>0.007576254237845626</v>
       </c>
       <c r="L12">
-        <v>0.1504456119674071</v>
+        <v>0.1504506050698992</v>
       </c>
       <c r="M12">
-        <v>5.494958837575222E-05</v>
+        <v>5.494777552995428E-05</v>
       </c>
       <c r="N12">
-        <v>0.1504456119674077</v>
+        <v>0.1504506050698995</v>
       </c>
       <c r="O12">
-        <v>1.316495700249536</v>
+        <v>1.316501864523344</v>
       </c>
       <c r="P12">
-        <v>0.2613450125990446</v>
+        <v>0.2613398733591065</v>
       </c>
       <c r="Q12">
-        <v>0.1809280283987706</v>
+        <v>0.180885832906079</v>
       </c>
       <c r="R12">
-        <v>0.4128651342750721</v>
+        <v>0.4128124328530886</v>
       </c>
       <c r="S12">
-        <v>0.238392471816592</v>
+        <v>0.238338541222346</v>
       </c>
       <c r="T12">
-        <v>0.4769162137133365</v>
+        <v>0.4768269205556759</v>
       </c>
     </row>
   </sheetData>

--- a/data/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/data/CPR_100221_20210210-114741/Ratios.xlsx
@@ -412,7 +412,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
@@ -497,10 +497,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>0.1143667343042054</v>
+        <v>-1.385999438767938</v>
       </c>
       <c r="B2">
-        <v>0.001672089322806292</v>
+        <v>0.001669580863432305</v>
       </c>
       <c r="C2">
         <v>0.009947044687815326</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>146.0150489192544</v>
+        <v>144.2958033305279</v>
       </c>
       <c r="B3">
-        <v>0.0005483835799002634</v>
+        <v>0.0005475608978145764</v>
       </c>
       <c r="C3">
         <v>0.009972045011614569</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>0.07524374222045438</v>
+        <v>-1.425063738750176</v>
       </c>
       <c r="B4">
-        <v>0.001847658475256469</v>
+        <v>0.001844886627987924</v>
       </c>
       <c r="C4">
         <v>0.01002745745125579</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>145.9566434423649</v>
+        <v>144.2374854732194</v>
       </c>
       <c r="B5">
-        <v>0.0004972629048417086</v>
+        <v>0.0004965169137167292</v>
       </c>
       <c r="C5">
         <v>0.01000467291249881</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>2.514640426850789</v>
+        <v>1.010673376144799</v>
       </c>
       <c r="B6">
-        <v>0.001802158364614082</v>
+        <v>0.001799454776365855</v>
       </c>
       <c r="C6">
         <v>0.009819163185528878</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>146.3587040911574</v>
+        <v>144.6389429527974</v>
       </c>
       <c r="B7">
-        <v>0.0005473663981895642</v>
+        <v>0.0005465452420743875</v>
       </c>
       <c r="C7">
         <v>0.009974392941727757</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>0.6979624794027917</v>
+        <v>-0.8032792008549894</v>
       </c>
       <c r="B8">
-        <v>0.001333396989833812</v>
+        <v>0.001331396634869054</v>
       </c>
       <c r="C8">
         <v>0.009907802217358631</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>145.9930428814786</v>
+        <v>144.2738303060913</v>
       </c>
       <c r="B9">
-        <v>0.0003793789222423742</v>
+        <v>0.0003788097800316013</v>
       </c>
       <c r="C9">
         <v>0.009984642247515869</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>0.7046473595699876</v>
+        <v>-0.7966043493090602</v>
       </c>
       <c r="B10">
-        <v>0.001929450337261307</v>
+        <v>0.001926555786283</v>
       </c>
       <c r="C10">
         <v>0.009841760080815906</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>146.9604677031626</v>
+        <v>145.2398038022811</v>
       </c>
       <c r="B11">
-        <v>0.0004881335238397607</v>
+        <v>0.0004874012285628684</v>
       </c>
       <c r="C11">
         <v>0.01001695123005385</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>1.121018406509577</v>
+        <v>-0.3808579399658951</v>
       </c>
       <c r="B12">
-        <v>0.001506192629674534</v>
+        <v>0.00150393304762386</v>
       </c>
       <c r="C12">
         <v>0.009956225754944125</v>

--- a/data/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/data/CPR_100221_20210210-114741/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,686 +505,722 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B2" s="1">
         <v>-1.385999438767938</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.001669580863432305</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.009947044687815326</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>0.7011526860997377</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.00714433689233078</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.007046489093913378</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>2.732204386789063</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.01064431016615503</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="1">
         <v>2.082960841733835</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="1">
         <v>0.6365650677998222</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="1">
         <v>0.00756863612888841</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <v>0.1671898113278986</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <v>5.489252419759365E-05</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="1">
         <v>0.1671898113278987</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="1">
         <v>1.324584322994288</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="1">
         <v>0.3409000047751028</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="1">
         <v>0.1838227800153526</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1">
         <v>0.4667233759767803</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="1">
         <v>0.2425652817721227</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="1">
         <v>0.32695342528132</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3">
+        <v>10989</v>
+      </c>
+      <c r="B3">
         <v>144.2958033305279</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.0005475608978145764</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.009972045011614569</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2646377242004547</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.007130189652224251</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.003500697815570997</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.1856942063239</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.005617505714359325</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.506651131411997</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2743973420444351</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.008672779026085535</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.04785134195379109</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6.290046508282891E-05</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0478513419537915</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0032773447034385</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2.118638886166868</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.09736895715369355</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.198702951628399</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0003205476770501719</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.018904390208913</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="4" spans="1:21" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B4" s="1">
         <v>-1.425063738750176</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>0.001844886627987924</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>0.01002745745125579</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>0.8834914352253984</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>0.007140668033343761</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>0.006578733621411427</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>2.732275900435217</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>0.01254469539256384</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <v>2.071877261004955</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="1">
         <v>0.8536139860979418</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="1">
         <v>0.007568340055058053</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="1">
         <v>0.1847519460978394</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <v>5.489037688338532E-05</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="1">
         <v>0.18475194609784</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="1">
         <v>1.323333400550307</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="1">
         <v>0.2852824024570378</v>
       </c>
-      <c r="Q4">
+      <c r="R4" s="1">
         <v>0.1830110572045474</v>
       </c>
-      <c r="R4">
+      <c r="S4" s="1">
         <v>0.413548279079566</v>
       </c>
-      <c r="S4">
+      <c r="T4" s="1">
         <v>0.2414264833758018</v>
       </c>
-      <c r="T4">
+      <c r="U4" s="1">
         <v>0.3636863292778187</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
+        <v>10990</v>
+      </c>
+      <c r="B5">
         <v>144.2374854732194</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.0004965169137167292</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.01000467291249881</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2852668181071359</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.007126501298762527</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.002583034550051453</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.708247072845213</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.005954548962270751</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.082557419361147</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.2854149612861608</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.008672337026833031</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.04339282011123668</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>6.289725942539605E-05</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.04339282011123644</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.002813531792510626</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.997515402124657</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.1814969380218558</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.3098441651051433</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.0005110649611273431</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2.008083298503632</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+    <row r="6" spans="1:21" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.010673376144799</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>0.001799454776365855</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>0.009819163185528878</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.7005947876739393</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.007141390746544888</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>0.006793854199901772</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>2.732690887221285</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>0.01292793445151222</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
         <v>2.105568368409784</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="1">
         <v>0.6878737296271061</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="1">
         <v>0.007586800849637246</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="1">
         <v>0.179763795154828</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <v>5.50242662124386E-05</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="1">
         <v>0.1797637951548278</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="1">
         <v>1.322200220349557</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="1">
         <v>0.2209736404250356</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="1">
         <v>0.1811370290506207</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="1">
         <v>0.3803973243849685</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="1">
         <v>0.239667028579765</v>
       </c>
-      <c r="T6">
+      <c r="U6" s="1">
         <v>0.3656704039744018</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
+        <v>10991</v>
+      </c>
+      <c r="B7">
         <v>144.6389429527974</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.0005465452420743875</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.009974392941727757</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3399342746653213</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.007131295183894645</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.002895902575613672</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.448072697317903</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.007157357494189458</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.748892358965405</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.3484447245712958</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.008675379729601508</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.04774826555039882</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6.291932702548944E-05</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.04774826555039949</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.003654896968490784</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.936336394570503</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.1804577480367137</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.3852339957965794</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.0006636456736421185</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.939710498005037</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:21" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B8" s="1">
         <v>-0.8032792008549894</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>0.001331396634869054</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>0.009907802217358631</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>0.8951896101869951</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>0.007144998928039134</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>0.008766109761841652</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>2.732460458939089</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="1">
         <v>0.01200300534548393</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="1">
         <v>2.089621996132539</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="1">
         <v>0.8525647439070897</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="1">
         <v>0.007573052647626605</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="1">
         <v>0.1332466977878208</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="1">
         <v>5.492455557782874E-05</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="1">
         <v>0.133246697787821</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="1">
         <v>1.319624247369094</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="1">
         <v>0.2325179417830537</v>
       </c>
-      <c r="Q8">
+      <c r="R8" s="1">
         <v>0.1803459092003151</v>
       </c>
-      <c r="R8">
+      <c r="S8" s="1">
         <v>0.4297868006133961</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="1">
         <v>0.2382822709433621</v>
       </c>
-      <c r="T8">
+      <c r="U8" s="1">
         <v>0.3670470559826737</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
+        <v>10992</v>
+      </c>
+      <c r="B9">
         <v>144.2738303060913</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.0003788097800316013</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.009984642247515869</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3249150038569073</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.007129198117649794</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.002259488923487795</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.407817424515519</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.005087385928677475</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.698260018102006</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.3272789772884239</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.008672612489439223</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.0331048189689242</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6.289925725400325E-05</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.03310481896892375</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.003181029449791472</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2.136376476475425</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.1138978916414677</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.2496545418348033</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.0003632314580999754</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2.136083829830561</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+    <row r="10" spans="1:21" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B10" s="1">
         <v>-0.7966043493090602</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>0.001926555786283</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>0.009841760080815906</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>0.8798385627668116</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>0.007144257730818516</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>0.005991626464188845</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
         <v>2.731460684210479</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="1">
         <v>0.009998739986237109</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="1">
         <v>2.112603635307891</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="1">
         <v>0.9213030659910797</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="1">
         <v>0.007573103237266384</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="1">
         <v>0.192809171252707</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="1">
         <v>5.4924922485813E-05</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="1">
         <v>0.1928091712527066</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="1">
         <v>1.317301608640938</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="1">
         <v>0.2453966400949428</v>
       </c>
-      <c r="Q10">
+      <c r="R10" s="1">
         <v>0.1802190851860907</v>
       </c>
-      <c r="R10">
+      <c r="S10" s="1">
         <v>0.4150400840242146</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="1">
         <v>0.2367855739726799</v>
       </c>
-      <c r="T10">
+      <c r="U10" s="1">
         <v>0.4260307905930146</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
+        <v>10993</v>
+      </c>
+      <c r="B11">
         <v>145.2398038022811</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.0004874012285628684</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.01001695123005385</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3568233649279627</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.007133268262085691</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.003443382786207898</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.530725630443185</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.006431033156213491</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.925903402007213</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.3577868050430094</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.008679933738589246</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.04255887954161763</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6.295235557175569E-05</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.04255887954161741</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.003398957315546118</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2.262906505247554</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.2062557903627206</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.36315465493538</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.0007053640786390493</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2.296267033740035</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+    <row r="12" spans="1:21" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B12" s="1">
         <v>-0.3808579399658951</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>0.00150393304762386</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>0.009956225754944125</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>0.8089106848440023</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>0.007145723959401584</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>0.006293223271456397</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
         <v>2.731635731525279</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>0.01143055946331255</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="1">
         <v>2.081859566530355</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="1">
         <v>0.8463572318815002</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="1">
         <v>0.007576254237845626</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="1">
         <v>0.1504506050698992</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="1">
         <v>5.494777552995428E-05</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="1">
         <v>0.1504506050698995</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="1">
         <v>1.316501864523344</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="1">
         <v>0.2613398733591065</v>
       </c>
-      <c r="Q12">
+      <c r="R12" s="1">
         <v>0.180885832906079</v>
       </c>
-      <c r="R12">
+      <c r="S12" s="1">
         <v>0.4128124328530886</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="1">
         <v>0.238338541222346</v>
       </c>
-      <c r="T12">
+      <c r="U12" s="1">
         <v>0.4768269205556759</v>
       </c>
     </row>

--- a/data/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/data/CPR_100221_20210210-114741/Ratios.xlsx
@@ -423,7 +423,7 @@
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
@@ -440,7 +440,7 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,10 +514,10 @@
         <v>10815</v>
       </c>
       <c r="B2" s="1">
-        <v>-1.385999438767938</v>
+        <v>-1.576667569721746</v>
       </c>
       <c r="C2" s="1">
-        <v>0.001669580863432305</v>
+        <v>0.001478752354046088</v>
       </c>
       <c r="D2" s="1">
         <v>0.009947044687815326</v>
@@ -526,10 +526,10 @@
         <v>0.7011526860997377</v>
       </c>
       <c r="F2" s="1">
-        <v>0.00714433689233078</v>
+        <v>0.007144296897712548</v>
       </c>
       <c r="G2" s="1">
-        <v>0.007046489093913378</v>
+        <v>0.007417903189274322</v>
       </c>
       <c r="H2" s="1">
         <v>2.732204386789063</v>
@@ -538,28 +538,28 @@
         <v>0.01064431016615503</v>
       </c>
       <c r="J2" s="1">
-        <v>2.082960841733835</v>
+        <v>2.083253286508519</v>
       </c>
       <c r="K2" s="1">
-        <v>0.6365650677998222</v>
+        <v>0.6590415179803142</v>
       </c>
       <c r="L2" s="1">
-        <v>0.00756863612888841</v>
+        <v>0.007567191028275208</v>
       </c>
       <c r="M2" s="1">
-        <v>0.1671898113278986</v>
+        <v>0.1481087536733177</v>
       </c>
       <c r="N2" s="1">
-        <v>5.489252419759365E-05</v>
+        <v>5.488204341624448E-05</v>
       </c>
       <c r="O2" s="1">
-        <v>0.1671898113278987</v>
+        <v>0.1481087536733174</v>
       </c>
       <c r="P2" s="1">
-        <v>1.324584322994288</v>
+        <v>1.325488815396536</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.3409000047751028</v>
+        <v>0.3215822963079741</v>
       </c>
       <c r="R2" s="1">
         <v>0.1838227800153526</v>
@@ -568,10 +568,10 @@
         <v>0.4667233759767803</v>
       </c>
       <c r="T2" s="1">
-        <v>0.2425652817721227</v>
+        <v>0.2425649162228197</v>
       </c>
       <c r="U2" s="1">
-        <v>0.32695342528132</v>
+        <v>0.3269535019506545</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -597,10 +597,10 @@
         <v>0.003500697815570997</v>
       </c>
       <c r="H3">
-        <v>5.1856942063239</v>
+        <v>5.185689931824315</v>
       </c>
       <c r="I3">
-        <v>0.005617505714359325</v>
+        <v>0.005759621605348021</v>
       </c>
       <c r="J3">
         <v>4.506651131411997</v>
@@ -621,22 +621,22 @@
         <v>0.0478513419537915</v>
       </c>
       <c r="P3">
-        <v>0.0032773447034385</v>
+        <v>0.003275356462361479</v>
       </c>
       <c r="Q3">
-        <v>2.118638886166868</v>
+        <v>2.119924914268915</v>
       </c>
       <c r="R3">
-        <v>0.09736895715369355</v>
+        <v>0.09733120204652208</v>
       </c>
       <c r="S3">
-        <v>0.198702951628399</v>
+        <v>0.2060866016614308</v>
       </c>
       <c r="T3">
-        <v>0.0003205476770501719</v>
+        <v>0.0003203543385384721</v>
       </c>
       <c r="U3">
-        <v>2.018904390208913</v>
+        <v>2.020137790100577</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -644,16 +644,16 @@
         <v>10815</v>
       </c>
       <c r="B4" s="1">
-        <v>-1.425063738750176</v>
+        <v>-1.993968138692681</v>
       </c>
       <c r="C4" s="1">
-        <v>0.001844886627987924</v>
+        <v>0.001741884743836049</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01002745745125579</v>
+        <v>0.0100170998366197</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8834914352253984</v>
+        <v>0.8474172615102259</v>
       </c>
       <c r="F4" s="1">
         <v>0.007140668033343761</v>
@@ -662,46 +662,46 @@
         <v>0.006578733621411427</v>
       </c>
       <c r="H4" s="1">
-        <v>2.732275900435217</v>
+        <v>2.732303424305919</v>
       </c>
       <c r="I4" s="1">
-        <v>0.01254469539256384</v>
+        <v>0.01120578579880862</v>
       </c>
       <c r="J4" s="1">
-        <v>2.071877261004955</v>
+        <v>2.073822321355093</v>
       </c>
       <c r="K4" s="1">
-        <v>0.8536139860979418</v>
+        <v>0.8201294338742942</v>
       </c>
       <c r="L4" s="1">
-        <v>0.007568340055058053</v>
+        <v>0.007564028248501297</v>
       </c>
       <c r="M4" s="1">
-        <v>0.1847519460978394</v>
+        <v>0.1745364945928616</v>
       </c>
       <c r="N4" s="1">
-        <v>5.489037688338532E-05</v>
+        <v>5.485910494195209E-05</v>
       </c>
       <c r="O4" s="1">
-        <v>0.18475194609784</v>
+        <v>0.1745364945928622</v>
       </c>
       <c r="P4" s="1">
-        <v>1.323333400550307</v>
+        <v>1.323289409733625</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.2852824024570378</v>
+        <v>0.2736660921300703</v>
       </c>
       <c r="R4" s="1">
-        <v>0.1830110572045474</v>
+        <v>0.1830152333401183</v>
       </c>
       <c r="S4" s="1">
-        <v>0.413548279079566</v>
+        <v>0.3958132555503516</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2414264833758018</v>
+        <v>0.2414261194212968</v>
       </c>
       <c r="U4" s="1">
-        <v>0.3636863292778187</v>
+        <v>0.3636864051450315</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -751,10 +751,10 @@
         <v>0.04339282011123644</v>
       </c>
       <c r="P5">
-        <v>0.002813531792510626</v>
+        <v>0.002818224514931116</v>
       </c>
       <c r="Q5">
-        <v>1.997515402124657</v>
+        <v>1.876895080002627</v>
       </c>
       <c r="R5">
         <v>0.1814969380218558</v>
@@ -763,10 +763,10 @@
         <v>0.3098441651051433</v>
       </c>
       <c r="T5">
-        <v>0.0005110649611273431</v>
+        <v>0.000512323621250908</v>
       </c>
       <c r="U5">
-        <v>2.008083298503632</v>
+        <v>1.970959586851783</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -816,10 +816,10 @@
         <v>0.1797637951548278</v>
       </c>
       <c r="P6" s="1">
-        <v>1.322200220349557</v>
+        <v>1.32219823094449</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.2209736404250356</v>
+        <v>0.2209739728222805</v>
       </c>
       <c r="R6" s="1">
         <v>0.1811370290506207</v>
@@ -828,10 +828,10 @@
         <v>0.3803973243849685</v>
       </c>
       <c r="T6" s="1">
-        <v>0.239667028579765</v>
+        <v>0.2396666663667818</v>
       </c>
       <c r="U6" s="1">
-        <v>0.3656704039744018</v>
+        <v>0.3656704898636055</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -845,10 +845,10 @@
         <v>0.0005465452420743875</v>
       </c>
       <c r="D7">
-        <v>0.009974392941727757</v>
+        <v>0.009976845361061415</v>
       </c>
       <c r="E7">
-        <v>0.3399342746653213</v>
+        <v>0.3297874133506366</v>
       </c>
       <c r="F7">
         <v>0.007131295183894645</v>
@@ -881,10 +881,10 @@
         <v>0.04774826555039949</v>
       </c>
       <c r="P7">
-        <v>0.003654896968490784</v>
+        <v>0.003639453782854304</v>
       </c>
       <c r="Q7">
-        <v>1.936336394570503</v>
+        <v>1.822070429031099</v>
       </c>
       <c r="R7">
         <v>0.1804577480367137</v>
@@ -893,10 +893,10 @@
         <v>0.3852339957965794</v>
       </c>
       <c r="T7">
-        <v>0.0006636456736421185</v>
+        <v>0.0006632840911626782</v>
       </c>
       <c r="U7">
-        <v>1.939710498005037</v>
+        <v>1.940759177824897</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
@@ -946,10 +946,10 @@
         <v>0.133246697787821</v>
       </c>
       <c r="P8" s="1">
-        <v>1.319624247369094</v>
+        <v>1.319622257679337</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.2325179417830537</v>
+        <v>0.2325182917524557</v>
       </c>
       <c r="R8" s="1">
         <v>0.1803459092003151</v>
@@ -958,10 +958,10 @@
         <v>0.4297868006133961</v>
       </c>
       <c r="T8" s="1">
-        <v>0.2382822709433621</v>
+        <v>0.2382819122323587</v>
       </c>
       <c r="U8" s="1">
-        <v>0.3670470559826737</v>
+        <v>0.3670471312898169</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -969,16 +969,16 @@
         <v>10992</v>
       </c>
       <c r="B9">
-        <v>144.2738303060913</v>
+        <v>144.2477879671713</v>
       </c>
       <c r="C9">
-        <v>0.0003788097800316013</v>
+        <v>0.0003612035633638828</v>
       </c>
       <c r="D9">
-        <v>0.009984642247515869</v>
+        <v>0.00998226392451965</v>
       </c>
       <c r="E9">
-        <v>0.3249150038569073</v>
+        <v>0.3367852707192005</v>
       </c>
       <c r="F9">
         <v>0.007129198117649794</v>
@@ -993,28 +993,28 @@
         <v>0.005087385928677475</v>
       </c>
       <c r="J9">
-        <v>4.698260018102006</v>
+        <v>4.698652581306738</v>
       </c>
       <c r="K9">
-        <v>0.3272789772884239</v>
+        <v>0.3404243708834113</v>
       </c>
       <c r="L9">
-        <v>0.008672612489439223</v>
+        <v>0.008672415110885429</v>
       </c>
       <c r="M9">
-        <v>0.0331048189689242</v>
+        <v>0.03156690073271559</v>
       </c>
       <c r="N9">
-        <v>6.289925725400325E-05</v>
+        <v>6.28978257402066E-05</v>
       </c>
       <c r="O9">
-        <v>0.03310481896892375</v>
+        <v>0.03156690073271488</v>
       </c>
       <c r="P9">
-        <v>0.003181029449791472</v>
+        <v>0.003179041188988946</v>
       </c>
       <c r="Q9">
-        <v>2.136376476475425</v>
+        <v>2.1377126504212</v>
       </c>
       <c r="R9">
         <v>0.1138978916414677</v>
@@ -1023,10 +1023,10 @@
         <v>0.2496545418348033</v>
       </c>
       <c r="T9">
-        <v>0.0003632314580999754</v>
+        <v>0.0003620849407583208</v>
       </c>
       <c r="U9">
-        <v>2.136083829830561</v>
+        <v>2.044010697369161</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
@@ -1034,10 +1034,10 @@
         <v>10815</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.7966043493090602</v>
+        <v>-1.507900421679476</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001926555786283</v>
+        <v>0.001813883976860164</v>
       </c>
       <c r="D10" s="1">
         <v>0.009841760080815906</v>
@@ -1064,22 +1064,22 @@
         <v>0.9213030659910797</v>
       </c>
       <c r="L10" s="1">
-        <v>0.007573103237266384</v>
+        <v>0.007567712224173581</v>
       </c>
       <c r="M10" s="1">
-        <v>0.192809171252707</v>
+        <v>0.1816623263845749</v>
       </c>
       <c r="N10" s="1">
-        <v>5.4924922485813E-05</v>
+        <v>5.488582345771776E-05</v>
       </c>
       <c r="O10" s="1">
-        <v>0.1928091712527066</v>
+        <v>0.181662326384575</v>
       </c>
       <c r="P10" s="1">
-        <v>1.317301608640938</v>
+        <v>1.317214722714466</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.2453966400949428</v>
+        <v>0.2582171694122649</v>
       </c>
       <c r="R10" s="1">
         <v>0.1802190851860907</v>
@@ -1088,10 +1088,10 @@
         <v>0.4150400840242146</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2367855739726799</v>
+        <v>0.2367852110607417</v>
       </c>
       <c r="U10" s="1">
-        <v>0.4260307905930146</v>
+        <v>0.4260308980406651</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1141,22 +1141,22 @@
         <v>0.04255887954161741</v>
       </c>
       <c r="P11">
-        <v>0.003398957315546118</v>
+        <v>0.003396968616918185</v>
       </c>
       <c r="Q11">
-        <v>2.262906505247554</v>
+        <v>2.26423125468954</v>
       </c>
       <c r="R11">
-        <v>0.2062557903627206</v>
+        <v>0.2061483249746852</v>
       </c>
       <c r="S11">
-        <v>0.36315465493538</v>
+        <v>0.3523134073429333</v>
       </c>
       <c r="T11">
-        <v>0.0007053640786390493</v>
+        <v>0.0007049510064866325</v>
       </c>
       <c r="U11">
-        <v>2.296267033740035</v>
+        <v>2.297564997300947</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
@@ -1176,10 +1176,10 @@
         <v>0.8089106848440023</v>
       </c>
       <c r="F12" s="1">
-        <v>0.007145723959401584</v>
+        <v>0.007145697660176736</v>
       </c>
       <c r="G12" s="1">
-        <v>0.006293223271456397</v>
+        <v>0.006052072924899333</v>
       </c>
       <c r="H12" s="1">
         <v>2.731635731525279</v>
@@ -1206,10 +1206,10 @@
         <v>0.1504506050698995</v>
       </c>
       <c r="P12" s="1">
-        <v>1.316501864523344</v>
+        <v>1.317266026380881</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.2613398733591065</v>
+        <v>0.245071663026405</v>
       </c>
       <c r="R12" s="1">
         <v>0.180885832906079</v>
@@ -1218,10 +1218,10 @@
         <v>0.4128124328530886</v>
       </c>
       <c r="T12" s="1">
-        <v>0.238338541222346</v>
+        <v>0.2384620925124516</v>
       </c>
       <c r="U12" s="1">
-        <v>0.4768269205556759</v>
+        <v>0.4561006561394234</v>
       </c>
     </row>
   </sheetData>

--- a/data/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/data/CPR_100221_20210210-114741/Ratios.xlsx
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,9 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,68 +585,68 @@
         <v>0.3269535019506545</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:21" s="2" customFormat="1">
+      <c r="A3" s="2">
         <v>10989</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>144.2958033305279</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.0005475608978145764</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.009972045011614569</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.2646377242004547</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.007130189652224251</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.003500697815570997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>5.185689931824315</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.005759621605348021</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>4.506651131411997</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.2743973420444351</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.008672779026085535</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.04785134195379109</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>6.290046508282891E-05</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.0478513419537915</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>0.003275356462361479</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>2.119924914268915</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>0.09733120204652208</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>0.2060866016614308</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>0.0003203543385384721</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>2.020137790100577</v>
       </c>
     </row>
@@ -704,68 +715,68 @@
         <v>0.3636864051450315</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:21" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>10990</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>144.2374854732194</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.0004965169137167292</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.01000467291249881</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.2852668181071359</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.007126501298762527</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.002583034550051453</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>4.708247072845213</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.005954548962270751</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>4.082557419361147</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.2854149612861608</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.008672337026833031</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.04339282011123668</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>6.289725942539605E-05</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.04339282011123644</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>0.002818224514931116</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>1.876895080002627</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>0.1814969380218558</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>0.3098441651051433</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>0.000512323621250908</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>1.970959586851783</v>
       </c>
     </row>
@@ -834,68 +845,68 @@
         <v>0.3656704898636055</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:21" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>10991</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>144.6389429527974</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.0005465452420743875</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.009976845361061415</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.3297874133506366</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.007131295183894645</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.002895902575613672</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>5.448072697317903</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.007157357494189458</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>4.748892358965405</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.3484447245712958</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.008675379729601508</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.04774826555039882</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>6.291932702548944E-05</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>0.04774826555039949</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>0.003639453782854304</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>1.822070429031099</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>0.1804577480367137</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>0.3852339957965794</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>0.0006632840911626782</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>1.940759177824897</v>
       </c>
     </row>
@@ -964,68 +975,68 @@
         <v>0.3670471312898169</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:21" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>10992</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>144.2477879671713</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.0003612035633638828</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.00998226392451965</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.3367852707192005</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.007129198117649794</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.002259488923487795</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>5.407817424515519</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.005087385928677475</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>4.698652581306738</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.3404243708834113</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.008672415110885429</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>0.03156690073271559</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>6.28978257402066E-05</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>0.03156690073271488</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>0.003179041188988946</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>2.1377126504212</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>0.1138978916414677</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>0.2496545418348033</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>0.0003620849407583208</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>2.044010697369161</v>
       </c>
     </row>
@@ -1094,68 +1105,68 @@
         <v>0.4260308980406651</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:21" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>10993</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>145.2398038022811</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.0004874012285628684</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.01001695123005385</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.3568233649279627</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.007133268262085691</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.003443382786207898</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>4.530725630443185</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.006431033156213491</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>3.925903402007213</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.3577868050430094</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.008679933738589246</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.04255887954161763</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>6.295235557175569E-05</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>0.04255887954161741</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>0.003396968616918185</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>2.26423125468954</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>0.2061483249746852</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>0.3523134073429333</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>0.0007049510064866325</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>2.297564997300947</v>
       </c>
     </row>
